--- a/capiq_data/in_process_data/IQ10081196.xlsx
+++ b/capiq_data/in_process_data/IQ10081196.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B5613-35A7-4DC4-B1A8-EE1B4CFFB776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC490B-94A8-44DC-9261-8854DF8B3BDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"28e1e26c-6535-462d-b7e2-575150c56f5e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3485771f-92dd-4115-81c8-a395939f7154"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$71</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$71</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$71</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$71</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$71</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$71</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$71</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$71</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$71</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$71</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$71</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$71</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$71</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$71</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$71</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$71</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$71</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$71</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$71</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$71</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$71</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$71</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$71</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$71</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$71</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$71</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,93 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +820,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>18.529</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>234.399</v>
       </c>
       <c r="E2">
-        <v>889.6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>149.245</v>
       </c>
       <c r="G2">
-        <v>1673</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>14176.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4953.5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +859,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1300.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7614.7</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5210.3999999999996</v>
+        <v>33.470999999999997</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>5.5620000000000003</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="S2">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>6561.6</v>
+        <v>358.50400000000002</v>
       </c>
       <c r="U2">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>50.015999999999998</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-35.180999999999997</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-39.552999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +898,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>18.529</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>92.8</v>
+        <v>60.146999999999998</v>
       </c>
       <c r="D3">
-        <v>1352.8</v>
+        <v>537.92200000000003</v>
       </c>
       <c r="E3">
-        <v>897.6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>376.5</v>
+        <v>153.83099999999999</v>
       </c>
       <c r="G3">
-        <v>1644.7</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>14114.3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>577.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4478.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +939,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2912.7</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1570.3</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7383.8</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5069.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>46.1</v>
+        <v>79.037000000000006</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6730.5</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>384.1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>260.2</v>
+        <v>63.459000000000003</v>
       </c>
       <c r="W3">
-        <v>-15.2</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-140.1</v>
+        <v>67.522000000000006</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +981,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>92.8</v>
+        <v>60.146999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38077</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>123.5</v>
+        <v>47.292000000000002</v>
       </c>
       <c r="D4">
-        <v>1413.3</v>
+        <v>538.56500000000005</v>
       </c>
       <c r="E4">
-        <v>895.8</v>
+        <v>321.36399999999998</v>
       </c>
       <c r="F4">
-        <v>423.9</v>
+        <v>261.83699999999999</v>
       </c>
       <c r="G4">
-        <v>1705.6</v>
+        <v>545.71400000000006</v>
       </c>
       <c r="H4">
-        <v>14161.6</v>
+        <v>2815.674</v>
       </c>
       <c r="I4">
-        <v>553.20000000000005</v>
+        <v>174.97499999999999</v>
       </c>
       <c r="J4">
-        <v>4322.3</v>
+        <v>23.045000000000002</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1025,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1615.5</v>
+        <v>358.726</v>
       </c>
       <c r="O4">
-        <v>7267.2</v>
+        <v>502.74799999999999</v>
       </c>
       <c r="P4">
-        <v>4939.3</v>
+        <v>48.631</v>
       </c>
       <c r="Q4">
-        <v>43.2</v>
+        <v>13.756</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38077</v>
       </c>
       <c r="S4">
-        <v>32000</v>
+        <v>12100</v>
       </c>
       <c r="T4">
-        <v>6894.4</v>
+        <v>2312.9259999999999</v>
       </c>
       <c r="U4">
-        <v>427.3</v>
+        <v>114.22199999999999</v>
       </c>
       <c r="V4">
-        <v>263.3</v>
+        <v>22.956</v>
       </c>
       <c r="W4">
-        <v>-16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-157.30000000000001</v>
+        <v>39.643999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1064,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>123.5</v>
+        <v>47.292000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38168</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>60.204000000000001</v>
       </c>
       <c r="D5">
-        <v>1398.2</v>
+        <v>603.43100000000004</v>
       </c>
       <c r="E5">
-        <v>860.1</v>
+        <v>361.54199999999997</v>
       </c>
       <c r="F5">
-        <v>432.9</v>
+        <v>153.21899999999999</v>
       </c>
       <c r="G5">
-        <v>1604.2</v>
+        <v>592.96500000000003</v>
       </c>
       <c r="H5">
-        <v>13885.5</v>
+        <v>3063.9459999999999</v>
       </c>
       <c r="I5">
-        <v>515.5</v>
+        <v>163.571</v>
       </c>
       <c r="J5">
-        <v>4332.8999999999996</v>
+        <v>22.946999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1108,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1515.9</v>
+        <v>373.67599999999999</v>
       </c>
       <c r="O5">
-        <v>7134.6</v>
+        <v>518.69000000000005</v>
       </c>
       <c r="P5">
-        <v>4917.5</v>
+        <v>47.911999999999999</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-3.4889999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38168</v>
       </c>
       <c r="S5">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6750.9</v>
+        <v>2545.2559999999999</v>
       </c>
       <c r="U5">
-        <v>386.8</v>
+        <v>110.773</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>129.34299999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-76.591999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1147,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>136.30000000000001</v>
+        <v>60.204000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38260</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>47.51</v>
       </c>
       <c r="D6">
-        <v>1461.3</v>
+        <v>514.53499999999997</v>
       </c>
       <c r="E6">
-        <v>915.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>473.2</v>
+        <v>314.45600000000002</v>
       </c>
       <c r="G6">
-        <v>1674</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13873.2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>100.6</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4554.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1191,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1356.3</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>7222</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4813.8</v>
+        <v>47.911999999999999</v>
       </c>
       <c r="Q6">
-        <v>28.7</v>
+        <v>-9.7680000000000007</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38260</v>
       </c>
       <c r="S6">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6651.2</v>
+        <v>2545.2559999999999</v>
       </c>
       <c r="U6">
-        <v>415.5</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>372.4</v>
+        <v>85.54</v>
       </c>
       <c r="W6">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-271.3</v>
+        <v>-70.168000000000006</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1230,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>117</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38352</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>87.1</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="D7">
-        <v>1413.4</v>
+        <v>674.99599999999998</v>
       </c>
       <c r="E7">
-        <v>948.7</v>
+        <v>399.79700000000003</v>
       </c>
       <c r="F7">
-        <v>423.9</v>
+        <v>76.840999999999994</v>
       </c>
       <c r="G7">
-        <v>1767.6</v>
+        <v>775.81</v>
       </c>
       <c r="H7">
-        <v>13904.4</v>
+        <v>4002.8560000000002</v>
       </c>
       <c r="I7">
-        <v>522.4</v>
+        <v>44.033999999999999</v>
       </c>
       <c r="J7">
-        <v>4733.8999999999996</v>
+        <v>417.31400000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1271,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-4598.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1104.5999999999999</v>
+        <v>543.02499999999998</v>
       </c>
       <c r="O7">
-        <v>7137.3</v>
+        <v>1234.3969999999999</v>
       </c>
       <c r="P7">
-        <v>4850.5</v>
+        <v>431.20499999999998</v>
       </c>
       <c r="Q7">
-        <v>66.2</v>
+        <v>98.34</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38352</v>
       </c>
       <c r="S7">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>6767.1</v>
+        <v>2768.4589999999998</v>
       </c>
       <c r="U7">
-        <v>481.7</v>
+        <v>190.88800000000001</v>
       </c>
       <c r="V7">
-        <v>203.8</v>
+        <v>266.51799999999997</v>
       </c>
       <c r="W7">
-        <v>-58.8</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-75.8</v>
+        <v>302.27</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1313,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>87.1</v>
+        <v>34.409999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38442</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>44.595999999999997</v>
       </c>
       <c r="D8">
-        <v>1457.2</v>
+        <v>651.58000000000004</v>
       </c>
       <c r="E8">
-        <v>952.3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>476.1</v>
+        <v>221.505</v>
       </c>
       <c r="G8">
-        <v>2157.6</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>13943</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>552.4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4741</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1357,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1121.3</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>7137.9</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4871.1000000000004</v>
+        <v>431.20499999999998</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>233.428</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38442</v>
       </c>
       <c r="S8">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>6805.1</v>
+        <v>2768.4589999999998</v>
       </c>
       <c r="U8">
-        <v>533.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>78.173000000000002</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-2463.4</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>197.267</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1396,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>150.6</v>
+        <v>44.595999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38533</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>86.8</v>
+        <v>48.576000000000001</v>
       </c>
       <c r="D9">
-        <v>1436.9</v>
+        <v>708.71299999999997</v>
       </c>
       <c r="E9">
-        <v>952.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>468.1</v>
+        <v>255.209</v>
       </c>
       <c r="G9">
-        <v>1875.4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>13626</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>673.1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4401.7</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1440,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1210.8</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>6849.3</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4543.8</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>42.8</v>
+        <v>-169.381</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38533</v>
       </c>
       <c r="S9">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>6776.7</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>576.6</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>255.3</v>
+        <v>138.24600000000001</v>
       </c>
       <c r="W9">
-        <v>-58.7</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-483.1</v>
+        <v>-251.43899999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1479,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>86.8</v>
+        <v>48.576000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38625</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>57.892000000000003</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>698.10900000000004</v>
       </c>
       <c r="E10">
-        <v>967.7</v>
+        <v>379.125</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>250.315</v>
       </c>
       <c r="G10">
-        <v>1844.2</v>
+        <v>774.62099999999998</v>
       </c>
       <c r="H10">
-        <v>13549.7</v>
+        <v>4062.971</v>
       </c>
       <c r="I10">
-        <v>93.4</v>
+        <v>291.01400000000001</v>
       </c>
       <c r="J10">
-        <v>4241</v>
+        <v>2561.422</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1523,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1256.8</v>
+        <v>546.67200000000003</v>
       </c>
       <c r="O10">
-        <v>6756.1</v>
+        <v>3392.143</v>
       </c>
       <c r="P10">
-        <v>4395.8999999999996</v>
+        <v>2572.0320000000002</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-73.507000000000005</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38625</v>
       </c>
       <c r="S10">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>6793.6</v>
+        <v>670.82799999999997</v>
       </c>
       <c r="U10">
-        <v>517.6</v>
+        <v>181.428</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>188.12899999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-128.16499999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1562,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>57.892000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38717</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>144.1</v>
+        <v>45.485999999999997</v>
       </c>
       <c r="D11">
-        <v>1478</v>
+        <v>707.68299999999999</v>
       </c>
       <c r="E11">
-        <v>981.4</v>
+        <v>436.62599999999998</v>
       </c>
       <c r="F11">
-        <v>470</v>
+        <v>245.77099999999999</v>
       </c>
       <c r="G11">
-        <v>1923.1</v>
+        <v>791.21600000000001</v>
       </c>
       <c r="H11">
-        <v>13699.2</v>
+        <v>4189.0209999999997</v>
       </c>
       <c r="I11">
-        <v>685.4</v>
+        <v>43.648000000000003</v>
       </c>
       <c r="J11">
-        <v>4444.5</v>
+        <v>2530.4549999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1603,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1990.1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1278.4000000000001</v>
+        <v>597.798</v>
       </c>
       <c r="O11">
-        <v>6900.7</v>
+        <v>3481.3910000000001</v>
       </c>
       <c r="P11">
-        <v>4611.8</v>
+        <v>2564.1280000000002</v>
       </c>
       <c r="Q11">
-        <v>73</v>
+        <v>-48.276000000000003</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38717</v>
       </c>
       <c r="S11">
-        <v>35000</v>
+        <v>19323</v>
       </c>
       <c r="T11">
-        <v>6798.5</v>
+        <v>707.63</v>
       </c>
       <c r="U11">
-        <v>590.6</v>
+        <v>133.15199999999999</v>
       </c>
       <c r="V11">
-        <v>207.5</v>
+        <v>21.428000000000001</v>
       </c>
       <c r="W11">
-        <v>-64.8</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>68.2</v>
+        <v>-14.917</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1645,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>144.1</v>
+        <v>45.485999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38807</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>39.357999999999997</v>
       </c>
       <c r="D12">
-        <v>1512.8</v>
+        <v>900.93600000000004</v>
       </c>
       <c r="E12">
-        <v>986.6</v>
+        <v>526.22</v>
       </c>
       <c r="F12">
-        <v>487.6</v>
+        <v>278.59899999999999</v>
       </c>
       <c r="G12">
-        <v>2051.3000000000002</v>
+        <v>1169.1500000000001</v>
       </c>
       <c r="H12">
-        <v>13750.1</v>
+        <v>7406.7820000000002</v>
       </c>
       <c r="I12">
-        <v>656.9</v>
+        <v>74.802000000000007</v>
       </c>
       <c r="J12">
-        <v>4677.2</v>
+        <v>2894.5349999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1689,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1142.9000000000001</v>
+        <v>847.48299999999995</v>
       </c>
       <c r="O12">
-        <v>6999.9</v>
+        <v>4424.2510000000002</v>
       </c>
       <c r="P12">
-        <v>4761.1000000000004</v>
+        <v>2928.125</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>78.203000000000003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38807</v>
       </c>
       <c r="S12">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>6750.2</v>
+        <v>2982.5309999999999</v>
       </c>
       <c r="U12">
-        <v>653.1</v>
+        <v>211.35499999999999</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>97.896000000000001</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-9.6159999999999997</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-76.295000000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1728,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>104.8</v>
+        <v>39.357999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38898</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>172.3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1033.8</v>
+        <v>555.97699999999998</v>
       </c>
       <c r="F13">
-        <v>504.9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2834.1</v>
+        <v>1139.885</v>
       </c>
       <c r="H13">
-        <v>14490.7</v>
+        <v>7342.7849999999999</v>
       </c>
       <c r="I13">
-        <v>668.9</v>
+        <v>78.174999999999997</v>
       </c>
       <c r="J13">
-        <v>4705.8</v>
+        <v>2863.6840000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1772,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1797.5</v>
+        <v>776.95100000000002</v>
       </c>
       <c r="O13">
-        <v>7687</v>
+        <v>4328.9120000000003</v>
       </c>
       <c r="P13">
-        <v>4826.1000000000004</v>
+        <v>2879.3130000000001</v>
       </c>
       <c r="Q13">
-        <v>158.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38898</v>
       </c>
       <c r="S13">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>6803.7</v>
+        <v>3013.873</v>
       </c>
       <c r="U13">
-        <v>811.6</v>
+        <v>143.69399999999999</v>
       </c>
       <c r="V13">
-        <v>311.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-63.8</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-97.7</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1811,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>172.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38990</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>71.900000000000006</v>
+        <v>78.58</v>
       </c>
       <c r="D14">
-        <v>1573.3</v>
+        <v>1058.1969999999999</v>
       </c>
       <c r="E14">
-        <v>1023.7</v>
+        <v>572.61</v>
       </c>
       <c r="F14">
-        <v>526.4</v>
+        <v>299.38400000000001</v>
       </c>
       <c r="G14">
-        <v>2351.9</v>
+        <v>1166.9490000000001</v>
       </c>
       <c r="H14">
-        <v>13960.1</v>
+        <v>7432.1189999999997</v>
       </c>
       <c r="I14">
-        <v>147</v>
+        <v>88.611999999999995</v>
       </c>
       <c r="J14">
-        <v>4341.7</v>
+        <v>2844.6509999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1855,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1672.7</v>
+        <v>846.86400000000003</v>
       </c>
       <c r="O14">
-        <v>7222.8</v>
+        <v>4373.0519999999997</v>
       </c>
       <c r="P14">
-        <v>4473</v>
+        <v>2868.7910000000002</v>
       </c>
       <c r="Q14">
-        <v>-264.10000000000002</v>
+        <v>30.995999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38990</v>
       </c>
       <c r="S14">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>6737.3</v>
+        <v>3059.067</v>
       </c>
       <c r="U14">
-        <v>547.5</v>
+        <v>174.69</v>
       </c>
       <c r="V14">
-        <v>384.4</v>
+        <v>148.16200000000001</v>
       </c>
       <c r="W14">
-        <v>-64.599999999999994</v>
+        <v>-9.4730000000000008</v>
       </c>
       <c r="X14">
-        <v>-523.79999999999995</v>
+        <v>-50.665999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1894,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>71.900000000000006</v>
+        <v>78.58</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39082</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>154.5</v>
+        <v>75.12</v>
       </c>
       <c r="D15">
-        <v>1520.3</v>
+        <v>1108.5219999999999</v>
       </c>
       <c r="E15">
-        <v>1022.8</v>
+        <v>628.27300000000002</v>
       </c>
       <c r="F15">
-        <v>475.9</v>
+        <v>305.73599999999999</v>
       </c>
       <c r="G15">
-        <v>2688.3</v>
+        <v>1300.539</v>
       </c>
       <c r="H15">
-        <v>14270.9</v>
+        <v>7630.56</v>
       </c>
       <c r="I15">
-        <v>651.5</v>
+        <v>96.554000000000002</v>
       </c>
       <c r="J15">
-        <v>4731.1000000000004</v>
+        <v>2947.84</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1935,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1529.6</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1704.4</v>
+        <v>880.51499999999999</v>
       </c>
       <c r="O15">
-        <v>7568.5</v>
+        <v>4474.8459999999995</v>
       </c>
       <c r="P15">
-        <v>4782.8999999999996</v>
+        <v>3009.5010000000002</v>
       </c>
       <c r="Q15">
-        <v>190.2</v>
+        <v>37.063000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39082</v>
       </c>
       <c r="S15">
-        <v>38000</v>
+        <v>24871</v>
       </c>
       <c r="T15">
-        <v>6702.4</v>
+        <v>3155.7139999999999</v>
       </c>
       <c r="U15">
-        <v>737.7</v>
+        <v>211.75299999999999</v>
       </c>
       <c r="V15">
-        <v>222.6</v>
+        <v>123.191</v>
       </c>
       <c r="W15">
-        <v>-69.5</v>
+        <v>-9.6240000000000006</v>
       </c>
       <c r="X15">
-        <v>42.4</v>
+        <v>8.9740000000000002</v>
       </c>
       <c r="Y15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>154.5</v>
+        <v>75.12</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39172</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>178.8</v>
+        <v>59.503</v>
       </c>
       <c r="D16">
-        <v>1599.1</v>
+        <v>1071.44</v>
       </c>
       <c r="E16">
-        <v>1056.4000000000001</v>
+        <v>719.779</v>
       </c>
       <c r="F16">
-        <v>506.6</v>
+        <v>299.05900000000003</v>
       </c>
       <c r="G16">
-        <v>2834.9</v>
+        <v>1373.175</v>
       </c>
       <c r="H16">
-        <v>14440.8</v>
+        <v>7688.4669999999996</v>
       </c>
       <c r="I16">
-        <v>647.6</v>
+        <v>464.983</v>
       </c>
       <c r="J16">
-        <v>4903.7</v>
+        <v>2931.723</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2021,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1701.3</v>
+        <v>870.56799999999998</v>
       </c>
       <c r="O16">
-        <v>7740.7</v>
+        <v>4428.7079999999996</v>
       </c>
       <c r="P16">
-        <v>4927.6000000000004</v>
+        <v>3029.28</v>
       </c>
       <c r="Q16">
-        <v>56</v>
+        <v>10.250999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39172</v>
       </c>
       <c r="S16">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>6700.1</v>
+        <v>3259.759</v>
       </c>
       <c r="U16">
-        <v>793.7</v>
+        <v>222.00399999999999</v>
       </c>
       <c r="V16">
-        <v>256.5</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="W16">
-        <v>-68.400000000000006</v>
+        <v>-9.6210000000000004</v>
       </c>
       <c r="X16">
-        <v>-81.7</v>
+        <v>32.97</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2060,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>178.8</v>
+        <v>59.503</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39263</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>150.5</v>
+        <v>148.00399999999999</v>
       </c>
       <c r="D17">
-        <v>1605.3</v>
+        <v>301.44200000000001</v>
       </c>
       <c r="E17">
-        <v>1084.3</v>
+        <v>757.14</v>
       </c>
       <c r="F17">
-        <v>530.79999999999995</v>
+        <v>-1.1419999999999999</v>
       </c>
       <c r="G17">
-        <v>2562.9</v>
+        <v>1458.826</v>
       </c>
       <c r="H17">
-        <v>14172.1</v>
+        <v>7795.2160000000003</v>
       </c>
       <c r="I17">
-        <v>639.29999999999995</v>
+        <v>548.84</v>
       </c>
       <c r="J17">
-        <v>4967.2</v>
+        <v>2738.8029999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2104,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1469.7</v>
+        <v>979.90700000000004</v>
       </c>
       <c r="O17">
-        <v>7580.6</v>
+        <v>4342.7389999999996</v>
       </c>
       <c r="P17">
-        <v>4975.3999999999996</v>
+        <v>2852.424</v>
       </c>
       <c r="Q17">
-        <v>-181.9</v>
+        <v>-1.1140000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39263</v>
       </c>
       <c r="S17">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>6591.5</v>
+        <v>3452.4769999999999</v>
       </c>
       <c r="U17">
-        <v>611.79999999999995</v>
+        <v>220.89</v>
       </c>
       <c r="V17">
-        <v>208</v>
+        <v>170.65700000000001</v>
       </c>
       <c r="W17">
-        <v>-67.8</v>
+        <v>-9.6460000000000008</v>
       </c>
       <c r="X17">
-        <v>-168.8</v>
+        <v>-184.357</v>
       </c>
       <c r="Y17">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>136.33799999999999</v>
       </c>
       <c r="AA17">
-        <v>150.5</v>
+        <v>148.00399999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39355</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>195.3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1689.1</v>
+        <v>712.81200000000001</v>
       </c>
       <c r="E18">
-        <v>1160</v>
+        <v>791.92899999999997</v>
       </c>
       <c r="F18">
-        <v>572.20000000000005</v>
+        <v>163.31399999999999</v>
       </c>
       <c r="G18">
-        <v>2473.1</v>
+        <v>1579.923</v>
       </c>
       <c r="H18">
-        <v>14520.5</v>
+        <v>9593.7569999999996</v>
       </c>
       <c r="I18">
-        <v>386.5</v>
+        <v>555.82299999999998</v>
       </c>
       <c r="J18">
-        <v>5055.5</v>
+        <v>4048.1570000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2187,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1598.9</v>
+        <v>1155.729</v>
       </c>
       <c r="O18">
-        <v>7829</v>
+        <v>5909.8239999999996</v>
       </c>
       <c r="P18">
-        <v>5068.6000000000004</v>
+        <v>4320.8760000000002</v>
       </c>
       <c r="Q18">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39355</v>
       </c>
       <c r="S18">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>6691.5</v>
+        <v>3683.933</v>
       </c>
       <c r="U18">
-        <v>492.8</v>
+        <v>279.07600000000002</v>
       </c>
       <c r="V18">
-        <v>477.8</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-69.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2226,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>195.3</v>
+        <v>245.304</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39447</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>111</v>
+        <v>108.389</v>
       </c>
       <c r="D19">
-        <v>1555</v>
+        <v>835.30600000000004</v>
       </c>
       <c r="E19">
-        <v>1163.0999999999999</v>
+        <v>840.8</v>
       </c>
       <c r="F19">
-        <v>485</v>
+        <v>193.96899999999999</v>
       </c>
       <c r="G19">
-        <v>2597</v>
+        <v>1829.5</v>
       </c>
       <c r="H19">
-        <v>14500</v>
+        <v>9794.6</v>
       </c>
       <c r="I19">
-        <v>798.4</v>
+        <v>119.5</v>
       </c>
       <c r="J19">
-        <v>5182.8</v>
+        <v>4044.6</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2267,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1559</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1761.1</v>
+        <v>1254.2</v>
       </c>
       <c r="O19">
-        <v>8017.6</v>
+        <v>5999.2</v>
       </c>
       <c r="P19">
-        <v>5196.3999999999996</v>
+        <v>4316.6000000000004</v>
       </c>
       <c r="Q19">
-        <v>-4</v>
+        <v>76.177000000000007</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39447</v>
       </c>
       <c r="S19">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="T19">
-        <v>6482.4</v>
+        <v>3795.4</v>
       </c>
       <c r="U19">
-        <v>489</v>
+        <v>355.3</v>
       </c>
       <c r="V19">
-        <v>231</v>
+        <v>207.09399999999999</v>
       </c>
       <c r="W19">
-        <v>-74</v>
+        <v>-9.7690000000000001</v>
       </c>
       <c r="X19">
-        <v>-98</v>
+        <v>-40.621000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AA19">
-        <v>111</v>
+        <v>108.389</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39538</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>240</v>
+        <v>70.5</v>
       </c>
       <c r="D20">
-        <v>1587</v>
+        <v>830.3</v>
       </c>
       <c r="E20">
-        <v>1162.2</v>
+        <v>869.56799999999998</v>
       </c>
       <c r="F20">
-        <v>517</v>
+        <v>181.6</v>
       </c>
       <c r="G20">
-        <v>2482.6</v>
+        <v>1840.097</v>
       </c>
       <c r="H20">
-        <v>14303.5</v>
+        <v>9832.23</v>
       </c>
       <c r="I20">
-        <v>794.6</v>
+        <v>606.25</v>
       </c>
       <c r="J20">
-        <v>5029.8</v>
+        <v>3908.7020000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2353,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1677.3</v>
+        <v>1279.8040000000001</v>
       </c>
       <c r="O20">
-        <v>7772.2</v>
+        <v>5981.1490000000003</v>
       </c>
       <c r="P20">
-        <v>5043.3</v>
+        <v>4179.317</v>
       </c>
       <c r="Q20">
-        <v>-43</v>
+        <v>-27.3</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39538</v>
       </c>
       <c r="S20">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>6531.3</v>
+        <v>3851.0810000000001</v>
       </c>
       <c r="U20">
-        <v>446.4</v>
+        <v>327.96499999999997</v>
       </c>
       <c r="V20">
-        <v>212</v>
+        <v>168.2</v>
       </c>
       <c r="W20">
-        <v>-73</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="X20">
-        <v>-387</v>
+        <v>-111</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2392,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>240</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39629</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>175</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D21">
-        <v>1579</v>
+        <v>869.7</v>
       </c>
       <c r="E21">
-        <v>1154.8</v>
+        <v>922.93100000000004</v>
       </c>
       <c r="F21">
-        <v>557</v>
+        <v>195.7</v>
       </c>
       <c r="G21">
-        <v>2436.3000000000002</v>
+        <v>1737.6010000000001</v>
       </c>
       <c r="H21">
-        <v>14187.8</v>
+        <v>9778.4449999999997</v>
       </c>
       <c r="I21">
-        <v>714.4</v>
+        <v>540.84500000000003</v>
       </c>
       <c r="J21">
-        <v>4957</v>
+        <v>3975.078</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2436,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1566.2</v>
+        <v>1222.1020000000001</v>
       </c>
       <c r="O21">
-        <v>7583.6</v>
+        <v>5947.6379999999999</v>
       </c>
       <c r="P21">
-        <v>4970.3999999999996</v>
+        <v>4272.2070000000003</v>
       </c>
       <c r="Q21">
-        <v>-4</v>
+        <v>-121</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39629</v>
       </c>
       <c r="S21">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>6604.2</v>
+        <v>3830.8069999999998</v>
       </c>
       <c r="U21">
-        <v>441.5</v>
+        <v>207.035</v>
       </c>
       <c r="V21">
-        <v>255</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="W21">
-        <v>-73</v>
+        <v>-9.6</v>
       </c>
       <c r="X21">
-        <v>-127</v>
+        <v>-137</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2475,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>175</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39721</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>106</v>
+        <v>43.6</v>
       </c>
       <c r="D22">
-        <v>1875</v>
+        <v>884</v>
       </c>
       <c r="E22">
-        <v>1731</v>
+        <v>527.26700000000005</v>
       </c>
       <c r="F22">
-        <v>642</v>
+        <v>222.2</v>
       </c>
       <c r="G22">
-        <v>3509</v>
+        <v>1205.498</v>
       </c>
       <c r="H22">
-        <v>26200</v>
+        <v>7549.9719999999998</v>
       </c>
       <c r="I22">
-        <v>564</v>
+        <v>73.551000000000002</v>
       </c>
       <c r="J22">
-        <v>11430</v>
+        <v>2554.799</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2519,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2364</v>
+        <v>720.78700000000003</v>
       </c>
       <c r="O22">
-        <v>16793</v>
+        <v>3881.3879999999999</v>
       </c>
       <c r="P22">
-        <v>11445</v>
+        <v>2648.761</v>
       </c>
       <c r="Q22">
-        <v>240</v>
+        <v>31.5</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39721</v>
       </c>
       <c r="S22">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>9407</v>
+        <v>3668.5839999999998</v>
       </c>
       <c r="U22">
-        <v>682</v>
+        <v>238.458</v>
       </c>
       <c r="V22">
-        <v>433</v>
+        <v>155.9</v>
       </c>
       <c r="W22">
-        <v>-85</v>
+        <v>-9.4</v>
       </c>
       <c r="X22">
-        <v>1627</v>
+        <v>-62</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2558,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>106</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39813</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1727</v>
+        <v>548.20000000000005</v>
       </c>
       <c r="F23">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3629</v>
+        <v>1166.2</v>
       </c>
       <c r="H23">
-        <v>26430</v>
+        <v>7500.4</v>
       </c>
       <c r="I23">
-        <v>1182</v>
+        <v>61.6</v>
       </c>
       <c r="J23">
-        <v>10538</v>
+        <v>2453.6</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2599,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1791</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3322</v>
+        <v>816.5</v>
       </c>
       <c r="O23">
-        <v>16941</v>
+        <v>3803.4</v>
       </c>
       <c r="P23">
-        <v>11304</v>
+        <v>2598.6999999999998</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39813</v>
       </c>
       <c r="S23">
-        <v>55000</v>
+        <v>26000</v>
       </c>
       <c r="T23">
-        <v>9489</v>
+        <v>3697</v>
       </c>
       <c r="U23">
-        <v>702</v>
+        <v>220.9</v>
       </c>
       <c r="V23">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-239</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2641,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39903</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>2305</v>
+        <v>794.1</v>
       </c>
       <c r="E24">
-        <v>1646</v>
+        <v>510</v>
       </c>
       <c r="F24">
-        <v>705</v>
+        <v>175.7</v>
       </c>
       <c r="G24">
-        <v>3678</v>
+        <v>1136</v>
       </c>
       <c r="H24">
-        <v>26384</v>
+        <v>7416.4</v>
       </c>
       <c r="I24">
-        <v>1145</v>
+        <v>395.1</v>
       </c>
       <c r="J24">
-        <v>10215</v>
+        <v>2327.6999999999998</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,40 +2682,40 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-595.9</v>
       </c>
       <c r="N24">
-        <v>3496</v>
+        <v>802.8</v>
       </c>
       <c r="O24">
-        <v>16777</v>
+        <v>3692.5</v>
       </c>
       <c r="P24">
-        <v>11130</v>
+        <v>2460.5</v>
       </c>
       <c r="Q24">
-        <v>63</v>
+        <v>51.1</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39903</v>
       </c>
       <c r="S24">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>9607</v>
+        <v>3723.9</v>
       </c>
       <c r="U24">
-        <v>765</v>
+        <v>272</v>
       </c>
       <c r="V24">
-        <v>435</v>
+        <v>162.9</v>
       </c>
       <c r="W24">
-        <v>-86</v>
+        <v>-9.5</v>
       </c>
       <c r="X24">
-        <v>-222</v>
+        <v>-59.9</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2724,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>121</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39994</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2309</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1649</v>
+        <v>533.20000000000005</v>
       </c>
       <c r="F25">
-        <v>782</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>3523</v>
+        <v>1094.9000000000001</v>
       </c>
       <c r="H25">
-        <v>26134</v>
+        <v>7439.8</v>
       </c>
       <c r="I25">
-        <v>1159</v>
+        <v>407.6</v>
       </c>
       <c r="J25">
-        <v>10472</v>
+        <v>2134</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2768,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2937</v>
+        <v>881.9</v>
       </c>
       <c r="O25">
-        <v>16378</v>
+        <v>3551.5</v>
       </c>
       <c r="P25">
-        <v>10789</v>
+        <v>2342.6</v>
       </c>
       <c r="Q25">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39994</v>
       </c>
       <c r="S25">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>9756</v>
+        <v>3888.3</v>
       </c>
       <c r="U25">
-        <v>701</v>
+        <v>227.9</v>
       </c>
       <c r="V25">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2807,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40086</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>207</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D26">
-        <v>2446</v>
+        <v>828.7</v>
       </c>
       <c r="E26">
-        <v>1639</v>
+        <v>525.1</v>
       </c>
       <c r="F26">
-        <v>893</v>
+        <v>223.3</v>
       </c>
       <c r="G26">
-        <v>4282</v>
+        <v>1057.3</v>
       </c>
       <c r="H26">
-        <v>26031</v>
+        <v>7430.5</v>
       </c>
       <c r="I26">
-        <v>512</v>
+        <v>332.8</v>
       </c>
       <c r="J26">
-        <v>10146</v>
+        <v>1947.9</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2851,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3151</v>
+        <v>885.9</v>
       </c>
       <c r="O26">
-        <v>16186</v>
+        <v>3398.6</v>
       </c>
       <c r="P26">
-        <v>10478</v>
+        <v>2173.1</v>
       </c>
       <c r="Q26">
-        <v>-18</v>
+        <v>-22.3</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40086</v>
       </c>
       <c r="S26">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>9845</v>
+        <v>4031.9</v>
       </c>
       <c r="U26">
-        <v>683</v>
+        <v>205.6</v>
       </c>
       <c r="V26">
-        <v>583</v>
+        <v>173.9</v>
       </c>
       <c r="W26">
-        <v>-86</v>
+        <v>-11.5</v>
       </c>
       <c r="X26">
-        <v>-418</v>
+        <v>-149.9</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2890,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>207</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40178</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2148</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1596</v>
+        <v>797.4</v>
       </c>
       <c r="F27">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>3409</v>
+        <v>1666.1</v>
       </c>
       <c r="H27">
-        <v>25086</v>
+        <v>13997.6</v>
       </c>
       <c r="I27">
-        <v>1258</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="J27">
-        <v>9154</v>
+        <v>3047.7</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2931,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-2443</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3138</v>
+        <v>1234.7</v>
       </c>
       <c r="O27">
-        <v>15096</v>
+        <v>5479</v>
       </c>
       <c r="P27">
-        <v>9505</v>
+        <v>3315.1</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40178</v>
       </c>
       <c r="S27">
-        <v>57000</v>
+        <v>31000</v>
       </c>
       <c r="T27">
-        <v>9990</v>
+        <v>8518.6</v>
       </c>
       <c r="U27">
-        <v>705</v>
+        <v>430.9</v>
       </c>
       <c r="V27">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-1114</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +2973,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40268</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>140</v>
+        <v>93.6</v>
       </c>
       <c r="D28">
-        <v>2258</v>
+        <v>1235</v>
       </c>
       <c r="E28">
-        <v>1456</v>
+        <v>751.4</v>
       </c>
       <c r="F28">
-        <v>738</v>
+        <v>344.6</v>
       </c>
       <c r="G28">
-        <v>4062</v>
+        <v>1593.2</v>
       </c>
       <c r="H28">
-        <v>24970</v>
+        <v>13834</v>
       </c>
       <c r="I28">
-        <v>959</v>
+        <v>537.9</v>
       </c>
       <c r="J28">
-        <v>9415</v>
+        <v>2849.9</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,40 +3014,40 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-2042</v>
       </c>
       <c r="N28">
-        <v>2729</v>
+        <v>1258.7</v>
       </c>
       <c r="O28">
-        <v>14965</v>
+        <v>5276.5</v>
       </c>
       <c r="P28">
-        <v>9712</v>
+        <v>3090.3</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40268</v>
       </c>
       <c r="S28">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>10005</v>
+        <v>8557.5</v>
       </c>
       <c r="U28">
-        <v>786</v>
+        <v>463.9</v>
       </c>
       <c r="V28">
-        <v>74</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="W28">
-        <v>-97</v>
+        <v>-19.5</v>
       </c>
       <c r="X28">
-        <v>124</v>
+        <v>-239</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3056,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>139</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40359</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>89.9</v>
       </c>
       <c r="D29">
-        <v>2096</v>
+        <v>1271</v>
       </c>
       <c r="E29">
-        <v>1598</v>
+        <v>770.4</v>
       </c>
       <c r="F29">
-        <v>710</v>
+        <v>377.8</v>
       </c>
       <c r="G29">
-        <v>3324</v>
+        <v>1618.2</v>
       </c>
       <c r="H29">
-        <v>24294</v>
+        <v>13766.3</v>
       </c>
       <c r="I29">
-        <v>1054</v>
+        <v>476.1</v>
       </c>
       <c r="J29">
-        <v>8813</v>
+        <v>2722.4</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3100,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2658</v>
+        <v>1212.2</v>
       </c>
       <c r="O29">
-        <v>14205</v>
+        <v>5087.8</v>
       </c>
       <c r="P29">
-        <v>9109</v>
+        <v>2990.9</v>
       </c>
       <c r="Q29">
-        <v>-66</v>
+        <v>38.1</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40359</v>
       </c>
       <c r="S29">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>10089</v>
+        <v>8678.5</v>
       </c>
       <c r="U29">
-        <v>720</v>
+        <v>502</v>
       </c>
       <c r="V29">
-        <v>551</v>
+        <v>173.6</v>
       </c>
       <c r="W29">
-        <v>-97</v>
+        <v>-19.8</v>
       </c>
       <c r="X29">
-        <v>-943</v>
+        <v>-49.5</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3139,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>59</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40451</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>934</v>
+        <v>110.4</v>
       </c>
       <c r="D30">
-        <v>2166</v>
+        <v>1367.2</v>
       </c>
       <c r="E30">
-        <v>1732</v>
+        <v>764.6</v>
       </c>
       <c r="F30">
-        <v>769</v>
+        <v>469.9</v>
       </c>
       <c r="G30">
-        <v>3688</v>
+        <v>1483.5</v>
       </c>
       <c r="H30">
-        <v>24526</v>
+        <v>13555.7</v>
       </c>
       <c r="I30">
-        <v>776</v>
+        <v>475.5</v>
       </c>
       <c r="J30">
-        <v>7718</v>
+        <v>4851.7</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3183,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4011</v>
+        <v>1187</v>
       </c>
       <c r="O30">
-        <v>13706</v>
+        <v>7134.8</v>
       </c>
       <c r="P30">
-        <v>8763</v>
+        <v>5124.8</v>
       </c>
       <c r="Q30">
-        <v>-55</v>
+        <v>-112.6</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40451</v>
       </c>
       <c r="S30">
-        <v>53000</v>
+        <v>30000</v>
       </c>
       <c r="T30">
-        <v>10820</v>
+        <v>6420.9</v>
       </c>
       <c r="U30">
-        <v>665</v>
+        <v>389.4</v>
       </c>
       <c r="V30">
-        <v>662</v>
+        <v>340.7</v>
       </c>
       <c r="W30">
-        <v>-96</v>
+        <v>-15.8</v>
       </c>
       <c r="X30">
-        <v>-547</v>
+        <v>-315.89999999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3222,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>934</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40543</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2066</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1669</v>
+        <v>889.6</v>
       </c>
       <c r="F31">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>3735</v>
+        <v>1673</v>
       </c>
       <c r="H31">
-        <v>24405</v>
+        <v>14176.3</v>
       </c>
       <c r="I31">
-        <v>1008</v>
+        <v>119</v>
       </c>
       <c r="J31">
-        <v>8040</v>
+        <v>4953.5</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3263,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1711</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3816</v>
+        <v>1300.4000000000001</v>
       </c>
       <c r="O31">
-        <v>13794</v>
+        <v>7614.7</v>
       </c>
       <c r="P31">
-        <v>9076</v>
+        <v>5210.3999999999996</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40543</v>
       </c>
       <c r="S31">
-        <v>53000</v>
+        <v>33000</v>
       </c>
       <c r="T31">
-        <v>10611</v>
+        <v>6561.6</v>
       </c>
       <c r="U31">
-        <v>725</v>
+        <v>338</v>
       </c>
       <c r="V31">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-173</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3305,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40633</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>212</v>
+        <v>92.8</v>
       </c>
       <c r="D32">
-        <v>2106</v>
+        <v>1352.8</v>
       </c>
       <c r="E32">
-        <v>1517</v>
+        <v>897.6</v>
       </c>
       <c r="F32">
-        <v>692</v>
+        <v>376.5</v>
       </c>
       <c r="G32">
-        <v>3494</v>
+        <v>1644.7</v>
       </c>
       <c r="H32">
-        <v>23868</v>
+        <v>14114.3</v>
       </c>
       <c r="I32">
-        <v>925</v>
+        <v>577.20000000000005</v>
       </c>
       <c r="J32">
-        <v>8854</v>
+        <v>4478.2</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,40 +3346,40 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-2912.7</v>
       </c>
       <c r="N32">
-        <v>2534</v>
+        <v>1570.3</v>
       </c>
       <c r="O32">
-        <v>13324</v>
+        <v>7383.8</v>
       </c>
       <c r="P32">
-        <v>8892</v>
+        <v>5069.6000000000004</v>
       </c>
       <c r="Q32">
-        <v>-42</v>
+        <v>46.1</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40633</v>
       </c>
       <c r="S32">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>10544</v>
+        <v>6730.5</v>
       </c>
       <c r="U32">
-        <v>683</v>
+        <v>384.1</v>
       </c>
       <c r="V32">
-        <v>469</v>
+        <v>260.2</v>
       </c>
       <c r="W32">
-        <v>-106</v>
+        <v>-15.2</v>
       </c>
       <c r="X32">
-        <v>-316</v>
+        <v>-140.1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3388,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>212</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40724</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>154</v>
+        <v>123.5</v>
       </c>
       <c r="D33">
-        <v>2084</v>
+        <v>1413.3</v>
       </c>
       <c r="E33">
-        <v>1513</v>
+        <v>895.8</v>
       </c>
       <c r="F33">
-        <v>720</v>
+        <v>423.9</v>
       </c>
       <c r="G33">
-        <v>3597</v>
+        <v>1705.6</v>
       </c>
       <c r="H33">
-        <v>23694</v>
+        <v>14161.6</v>
       </c>
       <c r="I33">
-        <v>998</v>
+        <v>553.20000000000005</v>
       </c>
       <c r="J33">
-        <v>8998</v>
+        <v>4322.3</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3432,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2692</v>
+        <v>1615.5</v>
       </c>
       <c r="O33">
-        <v>13528</v>
+        <v>7267.2</v>
       </c>
       <c r="P33">
-        <v>9038</v>
+        <v>4939.3</v>
       </c>
       <c r="Q33">
-        <v>-51</v>
+        <v>43.2</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40724</v>
       </c>
       <c r="S33">
-        <v>52000</v>
+        <v>32000</v>
       </c>
       <c r="T33">
-        <v>10166</v>
+        <v>6894.4</v>
       </c>
       <c r="U33">
-        <v>632</v>
+        <v>427.3</v>
       </c>
       <c r="V33">
-        <v>465</v>
+        <v>263.3</v>
       </c>
       <c r="W33">
-        <v>-105</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="X33">
-        <v>-305</v>
+        <v>-157.30000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3471,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>154</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40816</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2167</v>
+        <v>1398.2</v>
       </c>
       <c r="E34">
-        <v>1595</v>
+        <v>860.1</v>
       </c>
       <c r="F34">
-        <v>790</v>
+        <v>432.9</v>
       </c>
       <c r="G34">
-        <v>3733</v>
+        <v>1604.2</v>
       </c>
       <c r="H34">
-        <v>23770</v>
+        <v>13885.5</v>
       </c>
       <c r="I34">
-        <v>687</v>
+        <v>515.5</v>
       </c>
       <c r="J34">
-        <v>8670</v>
+        <v>4332.8999999999996</v>
       </c>
       <c r="K34">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3515,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3125</v>
+        <v>1515.9</v>
       </c>
       <c r="O34">
-        <v>13548</v>
+        <v>7134.6</v>
       </c>
       <c r="P34">
-        <v>8985</v>
+        <v>4917.5</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40816</v>
       </c>
       <c r="S34">
-        <v>47000</v>
+        <v>33000</v>
       </c>
       <c r="T34">
-        <v>10222</v>
+        <v>6750.9</v>
       </c>
       <c r="U34">
-        <v>703</v>
+        <v>386.8</v>
       </c>
       <c r="V34">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-442</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,208 +3554,208 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>298</v>
+        <v>136.30000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40908</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D35">
-        <v>2057</v>
+        <v>1461.3</v>
       </c>
       <c r="E35">
-        <v>1574</v>
+        <v>915.4</v>
       </c>
       <c r="F35">
-        <v>676</v>
+        <v>473.2</v>
       </c>
       <c r="G35">
-        <v>3611</v>
+        <v>1674</v>
       </c>
       <c r="H35">
-        <v>24073</v>
+        <v>13873.2</v>
       </c>
       <c r="I35">
-        <v>959</v>
+        <v>100.6</v>
       </c>
       <c r="J35">
-        <v>8562</v>
+        <v>4554.6000000000004</v>
       </c>
       <c r="K35">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-5754</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3521</v>
+        <v>1356.3</v>
       </c>
       <c r="O35">
-        <v>14170</v>
+        <v>7222</v>
       </c>
       <c r="P35">
-        <v>9660</v>
+        <v>4813.8</v>
       </c>
       <c r="Q35">
-        <v>-127</v>
+        <v>28.7</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40908</v>
       </c>
       <c r="S35">
-        <v>47000</v>
+        <v>33000</v>
       </c>
       <c r="T35">
-        <v>9903</v>
+        <v>6651.2</v>
       </c>
       <c r="U35">
-        <v>576</v>
+        <v>415.5</v>
       </c>
       <c r="V35">
-        <v>294</v>
+        <v>372.4</v>
       </c>
       <c r="W35">
-        <v>-113</v>
+        <v>-12.4</v>
       </c>
       <c r="X35">
-        <v>-275</v>
+        <v>-271.3</v>
       </c>
       <c r="Y35">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40999</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>154</v>
+        <v>87.1</v>
       </c>
       <c r="D36">
-        <v>2112</v>
+        <v>1413.4</v>
       </c>
       <c r="E36">
-        <v>1488</v>
+        <v>948.7</v>
       </c>
       <c r="F36">
-        <v>708</v>
+        <v>423.9</v>
       </c>
       <c r="G36">
-        <v>12505</v>
+        <v>1767.6</v>
       </c>
       <c r="H36">
-        <v>32859</v>
+        <v>13904.4</v>
       </c>
       <c r="I36">
-        <v>925</v>
+        <v>522.4</v>
       </c>
       <c r="J36">
-        <v>16682</v>
+        <v>4733.8999999999996</v>
       </c>
       <c r="K36">
-        <v>1507</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-4598.5</v>
       </c>
       <c r="N36">
-        <v>4170</v>
+        <v>1104.5999999999999</v>
       </c>
       <c r="O36">
-        <v>22867</v>
+        <v>7137.3</v>
       </c>
       <c r="P36">
-        <v>18668</v>
+        <v>4850.5</v>
       </c>
       <c r="Q36">
-        <v>9180</v>
+        <v>66.2</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40999</v>
       </c>
       <c r="S36">
-        <v>47000</v>
+        <v>33000</v>
       </c>
       <c r="T36">
-        <v>9992</v>
+        <v>6767.1</v>
       </c>
       <c r="U36">
-        <v>9756</v>
+        <v>481.7</v>
       </c>
       <c r="V36">
-        <v>526</v>
+        <v>203.8</v>
       </c>
       <c r="W36">
-        <v>-113</v>
+        <v>-58.8</v>
       </c>
       <c r="X36">
-        <v>8790</v>
+        <v>-75.8</v>
       </c>
       <c r="Y36">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>154</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41090</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2822</v>
+        <v>1457.2</v>
       </c>
       <c r="E37">
-        <v>3218</v>
+        <v>952.3</v>
       </c>
       <c r="F37">
-        <v>984</v>
+        <v>476.1</v>
       </c>
       <c r="G37">
-        <v>9325</v>
+        <v>2157.6</v>
       </c>
       <c r="H37">
-        <v>83718</v>
+        <v>13943</v>
       </c>
       <c r="I37">
-        <v>2014</v>
+        <v>552.4</v>
       </c>
       <c r="J37">
-        <v>16945</v>
+        <v>4741</v>
       </c>
       <c r="K37">
-        <v>3169</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3764,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10901</v>
+        <v>1121.3</v>
       </c>
       <c r="O37">
-        <v>34506</v>
+        <v>7137.9</v>
       </c>
       <c r="P37">
-        <v>20747</v>
+        <v>4871.1000000000004</v>
       </c>
       <c r="Q37">
-        <v>-5926</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41090</v>
       </c>
       <c r="S37">
-        <v>55000</v>
+        <v>32000</v>
       </c>
       <c r="T37">
-        <v>49212</v>
+        <v>6805.1</v>
       </c>
       <c r="U37">
-        <v>1305</v>
+        <v>533.79999999999995</v>
       </c>
       <c r="V37">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>-215</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>154</v>
+        <v>150.6</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41182</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-158</v>
+        <v>86.8</v>
       </c>
       <c r="D38">
-        <v>3342</v>
+        <v>1436.9</v>
       </c>
       <c r="E38">
-        <v>3366</v>
+        <v>952.1</v>
       </c>
       <c r="F38">
-        <v>1355</v>
+        <v>468.1</v>
       </c>
       <c r="G38">
-        <v>8692</v>
+        <v>1875.4</v>
       </c>
       <c r="H38">
-        <v>83806</v>
+        <v>13626</v>
       </c>
       <c r="I38">
-        <v>1386</v>
+        <v>673.1</v>
       </c>
       <c r="J38">
-        <v>17229</v>
+        <v>4401.7</v>
       </c>
       <c r="K38">
-        <v>2823</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,120 +3847,120 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>10382</v>
+        <v>1210.8</v>
       </c>
       <c r="O38">
-        <v>34350</v>
+        <v>6849.3</v>
       </c>
       <c r="P38">
-        <v>20787</v>
+        <v>4543.8</v>
       </c>
       <c r="Q38">
-        <v>-619</v>
+        <v>42.8</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41182</v>
       </c>
       <c r="S38">
-        <v>55000</v>
+        <v>32000</v>
       </c>
       <c r="T38">
-        <v>49456</v>
+        <v>6776.7</v>
       </c>
       <c r="U38">
-        <v>1152</v>
+        <v>576.6</v>
       </c>
       <c r="V38">
-        <v>669</v>
+        <v>255.3</v>
       </c>
       <c r="W38">
-        <v>-215</v>
+        <v>-58.7</v>
       </c>
       <c r="X38">
-        <v>-1010</v>
+        <v>-483.1</v>
       </c>
       <c r="Y38">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>-158</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41274</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>3257</v>
+        <v>967.7</v>
       </c>
       <c r="F39">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>8346</v>
+        <v>1844.2</v>
       </c>
       <c r="H39">
-        <v>82474</v>
+        <v>13549.7</v>
       </c>
       <c r="I39">
-        <v>2199</v>
+        <v>93.4</v>
       </c>
       <c r="J39">
-        <v>18982</v>
+        <v>4241</v>
       </c>
       <c r="K39">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-10391</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>7926</v>
+        <v>1256.8</v>
       </c>
       <c r="O39">
-        <v>33117</v>
+        <v>6756.1</v>
       </c>
       <c r="P39">
-        <v>20377</v>
+        <v>4395.8999999999996</v>
       </c>
       <c r="Q39">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41274</v>
       </c>
       <c r="S39">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="T39">
-        <v>49357</v>
+        <v>6793.6</v>
       </c>
       <c r="U39">
-        <v>1373</v>
+        <v>517.6</v>
       </c>
       <c r="V39">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,81 +3969,81 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41364</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>144.1</v>
       </c>
       <c r="D40">
-        <v>2962</v>
+        <v>1478</v>
       </c>
       <c r="E40">
-        <v>3254</v>
+        <v>981.4</v>
       </c>
       <c r="F40">
-        <v>916</v>
+        <v>470</v>
       </c>
       <c r="G40">
-        <v>8600</v>
+        <v>1923.1</v>
       </c>
       <c r="H40">
-        <v>82642</v>
+        <v>13699.2</v>
       </c>
       <c r="I40">
-        <v>2063</v>
+        <v>685.4</v>
       </c>
       <c r="J40">
-        <v>14874</v>
+        <v>4444.5</v>
       </c>
       <c r="K40">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-1990.1</v>
       </c>
       <c r="N40">
-        <v>12117</v>
+        <v>1278.4000000000001</v>
       </c>
       <c r="O40">
-        <v>33409</v>
+        <v>6900.7</v>
       </c>
       <c r="P40">
-        <v>19868</v>
+        <v>4611.8</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41364</v>
       </c>
       <c r="S40">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="T40">
-        <v>49233</v>
+        <v>6798.5</v>
       </c>
       <c r="U40">
-        <v>1183</v>
+        <v>590.6</v>
       </c>
       <c r="V40">
-        <v>1230</v>
+        <v>207.5</v>
       </c>
       <c r="W40">
-        <v>-217</v>
+        <v>-64.8</v>
       </c>
       <c r="X40">
-        <v>-874</v>
+        <v>68.2</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,42 +4052,42 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>19</v>
+        <v>144.1</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41455</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>3197</v>
+        <v>1512.8</v>
       </c>
       <c r="E41">
-        <v>3310</v>
+        <v>986.6</v>
       </c>
       <c r="F41">
-        <v>1093</v>
+        <v>487.6</v>
       </c>
       <c r="G41">
-        <v>9934</v>
+        <v>2051.3000000000002</v>
       </c>
       <c r="H41">
-        <v>83195</v>
+        <v>13750.1</v>
       </c>
       <c r="I41">
-        <v>2192</v>
+        <v>656.9</v>
       </c>
       <c r="J41">
-        <v>15213</v>
+        <v>4677.2</v>
       </c>
       <c r="K41">
-        <v>3144</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,37 +4096,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>12775</v>
+        <v>1142.9000000000001</v>
       </c>
       <c r="O41">
-        <v>33974</v>
+        <v>6999.9</v>
       </c>
       <c r="P41">
-        <v>20189</v>
+        <v>4761.1000000000004</v>
       </c>
       <c r="Q41">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41455</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="T41">
-        <v>49221</v>
+        <v>6750.2</v>
       </c>
       <c r="U41">
-        <v>1826</v>
+        <v>653.1</v>
       </c>
       <c r="V41">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>-217</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-796</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4048,89 +4135,2496 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>20</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41547</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>172.3</v>
+      </c>
+      <c r="D42">
+        <v>1500</v>
+      </c>
+      <c r="E42">
+        <v>1033.8</v>
+      </c>
+      <c r="F42">
+        <v>504.9</v>
+      </c>
+      <c r="G42">
+        <v>2834.1</v>
+      </c>
+      <c r="H42">
+        <v>14490.7</v>
+      </c>
+      <c r="I42">
+        <v>668.9</v>
+      </c>
+      <c r="J42">
+        <v>4705.8</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1797.5</v>
+      </c>
+      <c r="O42">
+        <v>7687</v>
+      </c>
+      <c r="P42">
+        <v>4826.1000000000004</v>
+      </c>
+      <c r="Q42">
+        <v>158.5</v>
+      </c>
+      <c r="R42">
+        <v>41547</v>
+      </c>
+      <c r="S42">
+        <v>35000</v>
+      </c>
+      <c r="T42">
+        <v>6803.7</v>
+      </c>
+      <c r="U42">
+        <v>811.6</v>
+      </c>
+      <c r="V42">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="W42">
+        <v>-63.8</v>
+      </c>
+      <c r="X42">
+        <v>-97.7</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D43">
+        <v>1573.3</v>
+      </c>
+      <c r="E43">
+        <v>1023.7</v>
+      </c>
+      <c r="F43">
+        <v>526.4</v>
+      </c>
+      <c r="G43">
+        <v>2351.9</v>
+      </c>
+      <c r="H43">
+        <v>13960.1</v>
+      </c>
+      <c r="I43">
+        <v>147</v>
+      </c>
+      <c r="J43">
+        <v>4341.7</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1672.7</v>
+      </c>
+      <c r="O43">
+        <v>7222.8</v>
+      </c>
+      <c r="P43">
+        <v>4473</v>
+      </c>
+      <c r="Q43">
+        <v>-264.10000000000002</v>
+      </c>
+      <c r="R43">
+        <v>41639</v>
+      </c>
+      <c r="S43">
+        <v>38000</v>
+      </c>
+      <c r="T43">
+        <v>6737.3</v>
+      </c>
+      <c r="U43">
+        <v>547.5</v>
+      </c>
+      <c r="V43">
+        <v>384.4</v>
+      </c>
+      <c r="W43">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="X43">
+        <v>-523.79999999999995</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>154.5</v>
+      </c>
+      <c r="D44">
+        <v>1520.3</v>
+      </c>
+      <c r="E44">
+        <v>1022.8</v>
+      </c>
+      <c r="F44">
+        <v>475.9</v>
+      </c>
+      <c r="G44">
+        <v>2688.3</v>
+      </c>
+      <c r="H44">
+        <v>14270.9</v>
+      </c>
+      <c r="I44">
+        <v>651.5</v>
+      </c>
+      <c r="J44">
+        <v>4731.1000000000004</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-1529.6</v>
+      </c>
+      <c r="N44">
+        <v>1704.4</v>
+      </c>
+      <c r="O44">
+        <v>7568.5</v>
+      </c>
+      <c r="P44">
+        <v>4782.8999999999996</v>
+      </c>
+      <c r="Q44">
+        <v>190.2</v>
+      </c>
+      <c r="R44">
+        <v>41729</v>
+      </c>
+      <c r="S44">
+        <v>38000</v>
+      </c>
+      <c r="T44">
+        <v>6702.4</v>
+      </c>
+      <c r="U44">
+        <v>737.7</v>
+      </c>
+      <c r="V44">
+        <v>222.6</v>
+      </c>
+      <c r="W44">
+        <v>-69.5</v>
+      </c>
+      <c r="X44">
+        <v>42.4</v>
+      </c>
+      <c r="Y44">
+        <v>0.4</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>178.8</v>
+      </c>
+      <c r="D45">
+        <v>1599.1</v>
+      </c>
+      <c r="E45">
+        <v>1056.4000000000001</v>
+      </c>
+      <c r="F45">
+        <v>506.6</v>
+      </c>
+      <c r="G45">
+        <v>2834.9</v>
+      </c>
+      <c r="H45">
+        <v>14440.8</v>
+      </c>
+      <c r="I45">
+        <v>647.6</v>
+      </c>
+      <c r="J45">
+        <v>4903.7</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1701.3</v>
+      </c>
+      <c r="O45">
+        <v>7740.7</v>
+      </c>
+      <c r="P45">
+        <v>4927.6000000000004</v>
+      </c>
+      <c r="Q45">
+        <v>56</v>
+      </c>
+      <c r="R45">
+        <v>41820</v>
+      </c>
+      <c r="S45">
+        <v>39000</v>
+      </c>
+      <c r="T45">
+        <v>6700.1</v>
+      </c>
+      <c r="U45">
+        <v>793.7</v>
+      </c>
+      <c r="V45">
+        <v>256.5</v>
+      </c>
+      <c r="W45">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="X45">
+        <v>-81.7</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>178.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>150.5</v>
+      </c>
+      <c r="D46">
+        <v>1605.3</v>
+      </c>
+      <c r="E46">
+        <v>1084.3</v>
+      </c>
+      <c r="F46">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="G46">
+        <v>2562.9</v>
+      </c>
+      <c r="H46">
+        <v>14172.1</v>
+      </c>
+      <c r="I46">
+        <v>639.29999999999995</v>
+      </c>
+      <c r="J46">
+        <v>4967.2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1469.7</v>
+      </c>
+      <c r="O46">
+        <v>7580.6</v>
+      </c>
+      <c r="P46">
+        <v>4975.3999999999996</v>
+      </c>
+      <c r="Q46">
+        <v>-181.9</v>
+      </c>
+      <c r="R46">
+        <v>41912</v>
+      </c>
+      <c r="S46">
+        <v>40000</v>
+      </c>
+      <c r="T46">
+        <v>6591.5</v>
+      </c>
+      <c r="U46">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="V46">
+        <v>208</v>
+      </c>
+      <c r="W46">
+        <v>-67.8</v>
+      </c>
+      <c r="X46">
+        <v>-168.8</v>
+      </c>
+      <c r="Y46">
+        <v>0.9</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>195.3</v>
+      </c>
+      <c r="D47">
+        <v>1689.1</v>
+      </c>
+      <c r="E47">
+        <v>1160</v>
+      </c>
+      <c r="F47">
+        <v>572.20000000000005</v>
+      </c>
+      <c r="G47">
+        <v>2473.1</v>
+      </c>
+      <c r="H47">
+        <v>14520.5</v>
+      </c>
+      <c r="I47">
+        <v>386.5</v>
+      </c>
+      <c r="J47">
+        <v>5055.5</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1598.9</v>
+      </c>
+      <c r="O47">
+        <v>7829</v>
+      </c>
+      <c r="P47">
+        <v>5068.6000000000004</v>
+      </c>
+      <c r="Q47">
+        <v>-119</v>
+      </c>
+      <c r="R47">
+        <v>42004</v>
+      </c>
+      <c r="S47">
+        <v>40000</v>
+      </c>
+      <c r="T47">
+        <v>6691.5</v>
+      </c>
+      <c r="U47">
+        <v>492.8</v>
+      </c>
+      <c r="V47">
+        <v>477.8</v>
+      </c>
+      <c r="W47">
+        <v>-69.400000000000006</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>195.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>111</v>
+      </c>
+      <c r="D48">
+        <v>1555</v>
+      </c>
+      <c r="E48">
+        <v>1163.0999999999999</v>
+      </c>
+      <c r="F48">
+        <v>485</v>
+      </c>
+      <c r="G48">
+        <v>2597</v>
+      </c>
+      <c r="H48">
+        <v>14500</v>
+      </c>
+      <c r="I48">
+        <v>798.4</v>
+      </c>
+      <c r="J48">
+        <v>5182.8</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-1559</v>
+      </c>
+      <c r="N48">
+        <v>1761.1</v>
+      </c>
+      <c r="O48">
+        <v>8017.6</v>
+      </c>
+      <c r="P48">
+        <v>5196.3999999999996</v>
+      </c>
+      <c r="Q48">
+        <v>-4</v>
+      </c>
+      <c r="R48">
+        <v>42094</v>
+      </c>
+      <c r="S48">
+        <v>40000</v>
+      </c>
+      <c r="T48">
+        <v>6482.4</v>
+      </c>
+      <c r="U48">
+        <v>489</v>
+      </c>
+      <c r="V48">
+        <v>231</v>
+      </c>
+      <c r="W48">
+        <v>-74</v>
+      </c>
+      <c r="X48">
+        <v>-98</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>240</v>
+      </c>
+      <c r="D49">
+        <v>1587</v>
+      </c>
+      <c r="E49">
+        <v>1162.2</v>
+      </c>
+      <c r="F49">
+        <v>517</v>
+      </c>
+      <c r="G49">
+        <v>2482.6</v>
+      </c>
+      <c r="H49">
+        <v>14303.5</v>
+      </c>
+      <c r="I49">
+        <v>794.6</v>
+      </c>
+      <c r="J49">
+        <v>5029.8</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1677.3</v>
+      </c>
+      <c r="O49">
+        <v>7772.2</v>
+      </c>
+      <c r="P49">
+        <v>5043.3</v>
+      </c>
+      <c r="Q49">
+        <v>-43</v>
+      </c>
+      <c r="R49">
+        <v>42185</v>
+      </c>
+      <c r="S49">
+        <v>42000</v>
+      </c>
+      <c r="T49">
+        <v>6531.3</v>
+      </c>
+      <c r="U49">
+        <v>446.4</v>
+      </c>
+      <c r="V49">
+        <v>212</v>
+      </c>
+      <c r="W49">
+        <v>-73</v>
+      </c>
+      <c r="X49">
+        <v>-387</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>175</v>
+      </c>
+      <c r="D50">
+        <v>1579</v>
+      </c>
+      <c r="E50">
+        <v>1154.8</v>
+      </c>
+      <c r="F50">
+        <v>557</v>
+      </c>
+      <c r="G50">
+        <v>2436.3000000000002</v>
+      </c>
+      <c r="H50">
+        <v>14187.8</v>
+      </c>
+      <c r="I50">
+        <v>714.4</v>
+      </c>
+      <c r="J50">
+        <v>4957</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1566.2</v>
+      </c>
+      <c r="O50">
+        <v>7583.6</v>
+      </c>
+      <c r="P50">
+        <v>4970.3999999999996</v>
+      </c>
+      <c r="Q50">
+        <v>-4</v>
+      </c>
+      <c r="R50">
+        <v>42277</v>
+      </c>
+      <c r="S50">
+        <v>42000</v>
+      </c>
+      <c r="T50">
+        <v>6604.2</v>
+      </c>
+      <c r="U50">
+        <v>441.5</v>
+      </c>
+      <c r="V50">
+        <v>255</v>
+      </c>
+      <c r="W50">
+        <v>-73</v>
+      </c>
+      <c r="X50">
+        <v>-127</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>106</v>
+      </c>
+      <c r="D51">
+        <v>1875</v>
+      </c>
+      <c r="E51">
+        <v>1731</v>
+      </c>
+      <c r="F51">
+        <v>642</v>
+      </c>
+      <c r="G51">
+        <v>3509</v>
+      </c>
+      <c r="H51">
+        <v>26200</v>
+      </c>
+      <c r="I51">
+        <v>564</v>
+      </c>
+      <c r="J51">
+        <v>11430</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2364</v>
+      </c>
+      <c r="O51">
+        <v>16793</v>
+      </c>
+      <c r="P51">
+        <v>11445</v>
+      </c>
+      <c r="Q51">
+        <v>240</v>
+      </c>
+      <c r="R51">
+        <v>42369</v>
+      </c>
+      <c r="S51">
+        <v>55000</v>
+      </c>
+      <c r="T51">
+        <v>9407</v>
+      </c>
+      <c r="U51">
+        <v>682</v>
+      </c>
+      <c r="V51">
+        <v>433</v>
+      </c>
+      <c r="W51">
+        <v>-85</v>
+      </c>
+      <c r="X51">
+        <v>1627</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <v>2181</v>
+      </c>
+      <c r="E52">
+        <v>1727</v>
+      </c>
+      <c r="F52">
+        <v>628</v>
+      </c>
+      <c r="G52">
+        <v>3629</v>
+      </c>
+      <c r="H52">
+        <v>26430</v>
+      </c>
+      <c r="I52">
+        <v>1182</v>
+      </c>
+      <c r="J52">
+        <v>10538</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-1791</v>
+      </c>
+      <c r="N52">
+        <v>3322</v>
+      </c>
+      <c r="O52">
+        <v>16941</v>
+      </c>
+      <c r="P52">
+        <v>11304</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+      <c r="R52">
+        <v>42460</v>
+      </c>
+      <c r="S52">
+        <v>55000</v>
+      </c>
+      <c r="T52">
+        <v>9489</v>
+      </c>
+      <c r="U52">
+        <v>702</v>
+      </c>
+      <c r="V52">
+        <v>385</v>
+      </c>
+      <c r="W52">
+        <v>-85</v>
+      </c>
+      <c r="X52">
+        <v>-239</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>121</v>
+      </c>
+      <c r="D53">
+        <v>2305</v>
+      </c>
+      <c r="E53">
+        <v>1646</v>
+      </c>
+      <c r="F53">
+        <v>705</v>
+      </c>
+      <c r="G53">
+        <v>3678</v>
+      </c>
+      <c r="H53">
+        <v>26384</v>
+      </c>
+      <c r="I53">
+        <v>1145</v>
+      </c>
+      <c r="J53">
+        <v>10215</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3496</v>
+      </c>
+      <c r="O53">
+        <v>16777</v>
+      </c>
+      <c r="P53">
+        <v>11130</v>
+      </c>
+      <c r="Q53">
+        <v>63</v>
+      </c>
+      <c r="R53">
+        <v>42551</v>
+      </c>
+      <c r="S53">
+        <v>55000</v>
+      </c>
+      <c r="T53">
+        <v>9607</v>
+      </c>
+      <c r="U53">
+        <v>765</v>
+      </c>
+      <c r="V53">
+        <v>435</v>
+      </c>
+      <c r="W53">
+        <v>-86</v>
+      </c>
+      <c r="X53">
+        <v>-222</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>185</v>
+      </c>
+      <c r="D54">
+        <v>2309</v>
+      </c>
+      <c r="E54">
+        <v>1649</v>
+      </c>
+      <c r="F54">
+        <v>782</v>
+      </c>
+      <c r="G54">
+        <v>3523</v>
+      </c>
+      <c r="H54">
+        <v>26134</v>
+      </c>
+      <c r="I54">
+        <v>1159</v>
+      </c>
+      <c r="J54">
+        <v>10472</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2937</v>
+      </c>
+      <c r="O54">
+        <v>16378</v>
+      </c>
+      <c r="P54">
+        <v>10789</v>
+      </c>
+      <c r="Q54">
+        <v>-64</v>
+      </c>
+      <c r="R54">
+        <v>42643</v>
+      </c>
+      <c r="S54">
+        <v>55000</v>
+      </c>
+      <c r="T54">
+        <v>9756</v>
+      </c>
+      <c r="U54">
+        <v>701</v>
+      </c>
+      <c r="V54">
+        <v>522</v>
+      </c>
+      <c r="W54">
+        <v>-84</v>
+      </c>
+      <c r="X54">
+        <v>-430</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>207</v>
+      </c>
+      <c r="D55">
+        <v>2446</v>
+      </c>
+      <c r="E55">
+        <v>1639</v>
+      </c>
+      <c r="F55">
+        <v>893</v>
+      </c>
+      <c r="G55">
+        <v>4282</v>
+      </c>
+      <c r="H55">
+        <v>26031</v>
+      </c>
+      <c r="I55">
+        <v>512</v>
+      </c>
+      <c r="J55">
+        <v>10146</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3151</v>
+      </c>
+      <c r="O55">
+        <v>16186</v>
+      </c>
+      <c r="P55">
+        <v>10478</v>
+      </c>
+      <c r="Q55">
+        <v>-18</v>
+      </c>
+      <c r="R55">
+        <v>42735</v>
+      </c>
+      <c r="S55">
+        <v>55000</v>
+      </c>
+      <c r="T55">
+        <v>9845</v>
+      </c>
+      <c r="U55">
+        <v>683</v>
+      </c>
+      <c r="V55">
+        <v>583</v>
+      </c>
+      <c r="W55">
+        <v>-86</v>
+      </c>
+      <c r="X55">
+        <v>-418</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>129</v>
+      </c>
+      <c r="D56">
+        <v>2148</v>
+      </c>
+      <c r="E56">
+        <v>1596</v>
+      </c>
+      <c r="F56">
+        <v>657</v>
+      </c>
+      <c r="G56">
+        <v>3409</v>
+      </c>
+      <c r="H56">
+        <v>25086</v>
+      </c>
+      <c r="I56">
+        <v>1258</v>
+      </c>
+      <c r="J56">
+        <v>9154</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-2443</v>
+      </c>
+      <c r="N56">
+        <v>3138</v>
+      </c>
+      <c r="O56">
+        <v>15096</v>
+      </c>
+      <c r="P56">
+        <v>9505</v>
+      </c>
+      <c r="Q56">
+        <v>22</v>
+      </c>
+      <c r="R56">
+        <v>42825</v>
+      </c>
+      <c r="S56">
+        <v>57000</v>
+      </c>
+      <c r="T56">
+        <v>9990</v>
+      </c>
+      <c r="U56">
+        <v>705</v>
+      </c>
+      <c r="V56">
+        <v>454</v>
+      </c>
+      <c r="W56">
+        <v>-95</v>
+      </c>
+      <c r="X56">
+        <v>-1114</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>140</v>
+      </c>
+      <c r="D57">
+        <v>2258</v>
+      </c>
+      <c r="E57">
+        <v>1456</v>
+      </c>
+      <c r="F57">
+        <v>738</v>
+      </c>
+      <c r="G57">
+        <v>4062</v>
+      </c>
+      <c r="H57">
+        <v>24970</v>
+      </c>
+      <c r="I57">
+        <v>959</v>
+      </c>
+      <c r="J57">
+        <v>9415</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2729</v>
+      </c>
+      <c r="O57">
+        <v>14965</v>
+      </c>
+      <c r="P57">
+        <v>9712</v>
+      </c>
+      <c r="Q57">
+        <v>81</v>
+      </c>
+      <c r="R57">
+        <v>42916</v>
+      </c>
+      <c r="S57">
+        <v>53000</v>
+      </c>
+      <c r="T57">
+        <v>10005</v>
+      </c>
+      <c r="U57">
+        <v>786</v>
+      </c>
+      <c r="V57">
+        <v>74</v>
+      </c>
+      <c r="W57">
+        <v>-97</v>
+      </c>
+      <c r="X57">
+        <v>124</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>2096</v>
+      </c>
+      <c r="E58">
+        <v>1598</v>
+      </c>
+      <c r="F58">
+        <v>710</v>
+      </c>
+      <c r="G58">
+        <v>3324</v>
+      </c>
+      <c r="H58">
+        <v>24294</v>
+      </c>
+      <c r="I58">
+        <v>1054</v>
+      </c>
+      <c r="J58">
+        <v>8813</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2658</v>
+      </c>
+      <c r="O58">
+        <v>14205</v>
+      </c>
+      <c r="P58">
+        <v>9109</v>
+      </c>
+      <c r="Q58">
+        <v>-66</v>
+      </c>
+      <c r="R58">
+        <v>43008</v>
+      </c>
+      <c r="S58">
+        <v>53000</v>
+      </c>
+      <c r="T58">
+        <v>10089</v>
+      </c>
+      <c r="U58">
+        <v>720</v>
+      </c>
+      <c r="V58">
+        <v>551</v>
+      </c>
+      <c r="W58">
+        <v>-97</v>
+      </c>
+      <c r="X58">
+        <v>-943</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>934</v>
+      </c>
+      <c r="D59">
+        <v>2166</v>
+      </c>
+      <c r="E59">
+        <v>1732</v>
+      </c>
+      <c r="F59">
+        <v>769</v>
+      </c>
+      <c r="G59">
+        <v>3688</v>
+      </c>
+      <c r="H59">
+        <v>24526</v>
+      </c>
+      <c r="I59">
+        <v>776</v>
+      </c>
+      <c r="J59">
+        <v>7718</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4011</v>
+      </c>
+      <c r="O59">
+        <v>13706</v>
+      </c>
+      <c r="P59">
+        <v>8763</v>
+      </c>
+      <c r="Q59">
+        <v>-55</v>
+      </c>
+      <c r="R59">
+        <v>43100</v>
+      </c>
+      <c r="S59">
+        <v>53000</v>
+      </c>
+      <c r="T59">
+        <v>10820</v>
+      </c>
+      <c r="U59">
+        <v>665</v>
+      </c>
+      <c r="V59">
+        <v>662</v>
+      </c>
+      <c r="W59">
+        <v>-96</v>
+      </c>
+      <c r="X59">
+        <v>-547</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>182</v>
+      </c>
+      <c r="D60">
+        <v>2066</v>
+      </c>
+      <c r="E60">
+        <v>1669</v>
+      </c>
+      <c r="F60">
+        <v>652</v>
+      </c>
+      <c r="G60">
+        <v>3735</v>
+      </c>
+      <c r="H60">
+        <v>24405</v>
+      </c>
+      <c r="I60">
+        <v>1008</v>
+      </c>
+      <c r="J60">
+        <v>8040</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-1711</v>
+      </c>
+      <c r="N60">
+        <v>3816</v>
+      </c>
+      <c r="O60">
+        <v>13794</v>
+      </c>
+      <c r="P60">
+        <v>9076</v>
+      </c>
+      <c r="Q60">
+        <v>60</v>
+      </c>
+      <c r="R60">
+        <v>43190</v>
+      </c>
+      <c r="S60">
+        <v>53000</v>
+      </c>
+      <c r="T60">
+        <v>10611</v>
+      </c>
+      <c r="U60">
+        <v>725</v>
+      </c>
+      <c r="V60">
+        <v>354</v>
+      </c>
+      <c r="W60">
+        <v>-105</v>
+      </c>
+      <c r="X60">
+        <v>-173</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>212</v>
+      </c>
+      <c r="D61">
+        <v>2106</v>
+      </c>
+      <c r="E61">
+        <v>1517</v>
+      </c>
+      <c r="F61">
+        <v>692</v>
+      </c>
+      <c r="G61">
+        <v>3494</v>
+      </c>
+      <c r="H61">
+        <v>23868</v>
+      </c>
+      <c r="I61">
+        <v>925</v>
+      </c>
+      <c r="J61">
+        <v>8854</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2534</v>
+      </c>
+      <c r="O61">
+        <v>13324</v>
+      </c>
+      <c r="P61">
+        <v>8892</v>
+      </c>
+      <c r="Q61">
+        <v>-42</v>
+      </c>
+      <c r="R61">
+        <v>43281</v>
+      </c>
+      <c r="S61">
+        <v>52000</v>
+      </c>
+      <c r="T61">
+        <v>10544</v>
+      </c>
+      <c r="U61">
+        <v>683</v>
+      </c>
+      <c r="V61">
+        <v>469</v>
+      </c>
+      <c r="W61">
+        <v>-106</v>
+      </c>
+      <c r="X61">
+        <v>-316</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>154</v>
+      </c>
+      <c r="D62">
+        <v>2084</v>
+      </c>
+      <c r="E62">
+        <v>1513</v>
+      </c>
+      <c r="F62">
+        <v>720</v>
+      </c>
+      <c r="G62">
+        <v>3597</v>
+      </c>
+      <c r="H62">
+        <v>23694</v>
+      </c>
+      <c r="I62">
+        <v>998</v>
+      </c>
+      <c r="J62">
+        <v>8998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2692</v>
+      </c>
+      <c r="O62">
+        <v>13528</v>
+      </c>
+      <c r="P62">
+        <v>9038</v>
+      </c>
+      <c r="Q62">
+        <v>-51</v>
+      </c>
+      <c r="R62">
+        <v>43373</v>
+      </c>
+      <c r="S62">
+        <v>52000</v>
+      </c>
+      <c r="T62">
+        <v>10166</v>
+      </c>
+      <c r="U62">
+        <v>632</v>
+      </c>
+      <c r="V62">
+        <v>465</v>
+      </c>
+      <c r="W62">
+        <v>-105</v>
+      </c>
+      <c r="X62">
+        <v>-305</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>298</v>
+      </c>
+      <c r="D63">
+        <v>2167</v>
+      </c>
+      <c r="E63">
+        <v>1595</v>
+      </c>
+      <c r="F63">
+        <v>790</v>
+      </c>
+      <c r="G63">
+        <v>3733</v>
+      </c>
+      <c r="H63">
+        <v>23770</v>
+      </c>
+      <c r="I63">
+        <v>687</v>
+      </c>
+      <c r="J63">
+        <v>8670</v>
+      </c>
+      <c r="K63">
+        <v>267</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3125</v>
+      </c>
+      <c r="O63">
+        <v>13548</v>
+      </c>
+      <c r="P63">
+        <v>8985</v>
+      </c>
+      <c r="Q63">
+        <v>71</v>
+      </c>
+      <c r="R63">
+        <v>43465</v>
+      </c>
+      <c r="S63">
+        <v>47000</v>
+      </c>
+      <c r="T63">
+        <v>10222</v>
+      </c>
+      <c r="U63">
+        <v>703</v>
+      </c>
+      <c r="V63">
+        <v>705</v>
+      </c>
+      <c r="W63">
+        <v>-105</v>
+      </c>
+      <c r="X63">
+        <v>-442</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>148</v>
+      </c>
+      <c r="D64">
+        <v>2057</v>
+      </c>
+      <c r="E64">
+        <v>1574</v>
+      </c>
+      <c r="F64">
+        <v>676</v>
+      </c>
+      <c r="G64">
+        <v>3611</v>
+      </c>
+      <c r="H64">
+        <v>24073</v>
+      </c>
+      <c r="I64">
+        <v>959</v>
+      </c>
+      <c r="J64">
+        <v>8562</v>
+      </c>
+      <c r="K64">
+        <v>600</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-5754</v>
+      </c>
+      <c r="N64">
+        <v>3521</v>
+      </c>
+      <c r="O64">
+        <v>14170</v>
+      </c>
+      <c r="P64">
+        <v>9660</v>
+      </c>
+      <c r="Q64">
+        <v>-127</v>
+      </c>
+      <c r="R64">
+        <v>43555</v>
+      </c>
+      <c r="S64">
+        <v>47000</v>
+      </c>
+      <c r="T64">
+        <v>9903</v>
+      </c>
+      <c r="U64">
+        <v>576</v>
+      </c>
+      <c r="V64">
+        <v>294</v>
+      </c>
+      <c r="W64">
+        <v>-113</v>
+      </c>
+      <c r="X64">
+        <v>-275</v>
+      </c>
+      <c r="Y64">
+        <v>336</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>154</v>
+      </c>
+      <c r="D65">
+        <v>2112</v>
+      </c>
+      <c r="E65">
+        <v>1488</v>
+      </c>
+      <c r="F65">
+        <v>708</v>
+      </c>
+      <c r="G65">
+        <v>12505</v>
+      </c>
+      <c r="H65">
+        <v>32859</v>
+      </c>
+      <c r="I65">
+        <v>925</v>
+      </c>
+      <c r="J65">
+        <v>16682</v>
+      </c>
+      <c r="K65">
+        <v>1507</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4170</v>
+      </c>
+      <c r="O65">
+        <v>22867</v>
+      </c>
+      <c r="P65">
+        <v>18668</v>
+      </c>
+      <c r="Q65">
+        <v>9180</v>
+      </c>
+      <c r="R65">
+        <v>43646</v>
+      </c>
+      <c r="S65">
+        <v>47000</v>
+      </c>
+      <c r="T65">
+        <v>9992</v>
+      </c>
+      <c r="U65">
+        <v>9756</v>
+      </c>
+      <c r="V65">
+        <v>526</v>
+      </c>
+      <c r="W65">
+        <v>-113</v>
+      </c>
+      <c r="X65">
+        <v>8790</v>
+      </c>
+      <c r="Y65">
+        <v>321</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>154</v>
+      </c>
+      <c r="D66">
+        <v>2822</v>
+      </c>
+      <c r="E66">
+        <v>3218</v>
+      </c>
+      <c r="F66">
+        <v>984</v>
+      </c>
+      <c r="G66">
+        <v>9325</v>
+      </c>
+      <c r="H66">
+        <v>83718</v>
+      </c>
+      <c r="I66">
+        <v>2014</v>
+      </c>
+      <c r="J66">
+        <v>16945</v>
+      </c>
+      <c r="K66">
+        <v>3169</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>10901</v>
+      </c>
+      <c r="O66">
+        <v>34506</v>
+      </c>
+      <c r="P66">
+        <v>20747</v>
+      </c>
+      <c r="Q66">
+        <v>-5926</v>
+      </c>
+      <c r="R66">
+        <v>43738</v>
+      </c>
+      <c r="S66">
+        <v>55000</v>
+      </c>
+      <c r="T66">
+        <v>49212</v>
+      </c>
+      <c r="U66">
+        <v>1305</v>
+      </c>
+      <c r="V66">
+        <v>921</v>
+      </c>
+      <c r="W66">
+        <v>-215</v>
+      </c>
+      <c r="X66">
+        <v>76</v>
+      </c>
+      <c r="Y66">
+        <v>425</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-158</v>
+      </c>
+      <c r="D67">
+        <v>3342</v>
+      </c>
+      <c r="E67">
+        <v>3366</v>
+      </c>
+      <c r="F67">
+        <v>1355</v>
+      </c>
+      <c r="G67">
+        <v>8692</v>
+      </c>
+      <c r="H67">
+        <v>83806</v>
+      </c>
+      <c r="I67">
+        <v>1386</v>
+      </c>
+      <c r="J67">
+        <v>17229</v>
+      </c>
+      <c r="K67">
+        <v>2823</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>10382</v>
+      </c>
+      <c r="O67">
+        <v>34350</v>
+      </c>
+      <c r="P67">
+        <v>20787</v>
+      </c>
+      <c r="Q67">
+        <v>-619</v>
+      </c>
+      <c r="R67">
+        <v>43830</v>
+      </c>
+      <c r="S67">
+        <v>55000</v>
+      </c>
+      <c r="T67">
+        <v>49456</v>
+      </c>
+      <c r="U67">
+        <v>1152</v>
+      </c>
+      <c r="V67">
+        <v>669</v>
+      </c>
+      <c r="W67">
+        <v>-215</v>
+      </c>
+      <c r="X67">
+        <v>-1010</v>
+      </c>
+      <c r="Y67">
+        <v>466</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>3078</v>
+      </c>
+      <c r="E68">
+        <v>3257</v>
+      </c>
+      <c r="F68">
+        <v>989</v>
+      </c>
+      <c r="G68">
+        <v>8346</v>
+      </c>
+      <c r="H68">
+        <v>82474</v>
+      </c>
+      <c r="I68">
+        <v>2199</v>
+      </c>
+      <c r="J68">
+        <v>18982</v>
+      </c>
+      <c r="K68">
+        <v>743</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-10391</v>
+      </c>
+      <c r="N68">
+        <v>7926</v>
+      </c>
+      <c r="O68">
+        <v>33117</v>
+      </c>
+      <c r="P68">
+        <v>20377</v>
+      </c>
+      <c r="Q68">
+        <v>229</v>
+      </c>
+      <c r="R68">
+        <v>43921</v>
+      </c>
+      <c r="S68">
+        <v>55000</v>
+      </c>
+      <c r="T68">
+        <v>49357</v>
+      </c>
+      <c r="U68">
+        <v>1373</v>
+      </c>
+      <c r="V68">
+        <v>383</v>
+      </c>
+      <c r="W68">
+        <v>-216</v>
+      </c>
+      <c r="X68">
+        <v>477</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>2962</v>
+      </c>
+      <c r="E69">
+        <v>3254</v>
+      </c>
+      <c r="F69">
+        <v>916</v>
+      </c>
+      <c r="G69">
+        <v>8600</v>
+      </c>
+      <c r="H69">
+        <v>82642</v>
+      </c>
+      <c r="I69">
+        <v>2063</v>
+      </c>
+      <c r="J69">
+        <v>14874</v>
+      </c>
+      <c r="K69">
+        <v>3217</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>12117</v>
+      </c>
+      <c r="O69">
+        <v>33409</v>
+      </c>
+      <c r="P69">
+        <v>19868</v>
+      </c>
+      <c r="Q69">
+        <v>18</v>
+      </c>
+      <c r="R69">
+        <v>44012</v>
+      </c>
+      <c r="S69">
+        <v>55000</v>
+      </c>
+      <c r="T69">
+        <v>49233</v>
+      </c>
+      <c r="U69">
+        <v>1183</v>
+      </c>
+      <c r="V69">
+        <v>1230</v>
+      </c>
+      <c r="W69">
+        <v>-217</v>
+      </c>
+      <c r="X69">
+        <v>-874</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>3197</v>
+      </c>
+      <c r="E70">
+        <v>3310</v>
+      </c>
+      <c r="F70">
+        <v>1093</v>
+      </c>
+      <c r="G70">
+        <v>9934</v>
+      </c>
+      <c r="H70">
+        <v>83195</v>
+      </c>
+      <c r="I70">
+        <v>2192</v>
+      </c>
+      <c r="J70">
+        <v>15213</v>
+      </c>
+      <c r="K70">
+        <v>3144</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>12775</v>
+      </c>
+      <c r="O70">
+        <v>33974</v>
+      </c>
+      <c r="P70">
+        <v>20189</v>
+      </c>
+      <c r="Q70">
+        <v>377</v>
+      </c>
+      <c r="R70">
+        <v>44104</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>49221</v>
+      </c>
+      <c r="U70">
+        <v>1826</v>
+      </c>
+      <c r="V70">
+        <v>1411</v>
+      </c>
+      <c r="W70">
+        <v>-217</v>
+      </c>
+      <c r="X70">
+        <v>-796</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
         <v>104</v>
       </c>
-      <c r="D42">
+      <c r="D71">
         <v>3316</v>
       </c>
-      <c r="E42">
+      <c r="E71">
         <v>3454</v>
       </c>
-      <c r="F42">
+      <c r="F71">
         <v>1206</v>
       </c>
-      <c r="G42">
+      <c r="G71">
         <v>9898</v>
       </c>
-      <c r="H42">
+      <c r="H71">
         <v>83842</v>
       </c>
-      <c r="I42">
+      <c r="I71">
         <v>1576</v>
       </c>
-      <c r="J42">
+      <c r="J71">
         <v>15951</v>
       </c>
-      <c r="K42">
+      <c r="K71">
         <v>2750</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>12361</v>
       </c>
-      <c r="O42">
+      <c r="O71">
         <v>34355</v>
       </c>
-      <c r="P42">
+      <c r="P71">
         <v>20620</v>
       </c>
-      <c r="Q42">
+      <c r="Q71">
         <v>195</v>
       </c>
-      <c r="R42">
+      <c r="R71">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S71">
         <v>62000</v>
       </c>
-      <c r="T42">
+      <c r="T71">
         <v>49487</v>
       </c>
-      <c r="U42">
+      <c r="U71">
         <v>1959</v>
       </c>
-      <c r="V42">
+      <c r="V71">
         <v>1418</v>
       </c>
-      <c r="W42">
+      <c r="W71">
         <v>-218</v>
       </c>
-      <c r="X42">
+      <c r="X71">
         <v>-1558</v>
       </c>
-      <c r="Y42">
+      <c r="Y71">
         <v>453</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
         <v>104</v>
       </c>
     </row>
